--- a/precios4.xlsx
+++ b/precios4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\controlagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D88080-55A3-47D2-BCEB-267DBC8A494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5679A38-17B7-4FE8-BD65-9DEB54B3D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{676E1655-04D6-4518-841D-CA3DA9354C2A}"/>
   </bookViews>
@@ -47,22 +47,22 @@
     <t>Cantidad de Embragues</t>
   </si>
   <si>
-    <t>INTEGRA 6000 + Corte por Surco con embragues TEKMATIC Clasicc o p/ matermacc, CON ANTENA</t>
+    <t>INTEGRA 6000 SIN ANTENA</t>
   </si>
   <si>
-    <t>INTEGRA 6000 + Corte por Surco con embragues TEKMATIC Clasicc o p/ matermacc, SIN ANTENA</t>
+    <t>INTEGRA 6000 CON ANTENA</t>
   </si>
   <si>
-    <t>PANTALLA i6000 + equipo de corte por surco a "GATILLO" para DOSIFIC. MATERMAC c/tapa EV3,  SIN ANTENA</t>
+    <t>PANTALLA i6000 SIN ANTENA</t>
   </si>
   <si>
-    <t>PANTALLA i6000 + equipo de corte por surco a "GATILLO" para DOSIFIC. MATERMAC c/tapa EV3,  CON ANTENA</t>
+    <t>PANTALLA i6000 CON ANTENA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Equipo de Corte por Surco con cualquier modelo o tipos de embragues TEKMATIC</t>
+    <t>TEKMATIC</t>
   </si>
   <si>
-    <t>Equipo de Corte por Surco con "GATILLO" PARA DOSIFICADOR MATERMACC, c/ tapa EV3</t>
+    <t>GATILLO PARA DOSIFICADOR MATERMACC</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBDA4A0-11E7-4D74-BDA7-46948E0C69CA}">
   <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>28</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>29</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>31</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>32</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>34</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>35</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>36</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>37</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>38</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>39</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>41</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>42</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>43</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
         <v>44</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>45</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>46</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>47</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>48</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>13</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>14</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>19</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>21</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>22</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>23</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>25</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>26</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>27</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>28</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>29</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>30</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>31</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>33</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>34</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>35</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>36</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>37</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>38</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>39</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>40</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>41</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>42</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>43</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>44</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>45</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <v>46</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>47</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>48</v>

--- a/precios4.xlsx
+++ b/precios4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\controlagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5679A38-17B7-4FE8-BD65-9DEB54B3D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C4C3B-C6D4-4E3D-9407-4E2DEED105B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{676E1655-04D6-4518-841D-CA3DA9354C2A}"/>
   </bookViews>
@@ -47,22 +47,22 @@
     <t>Cantidad de Embragues</t>
   </si>
   <si>
-    <t>INTEGRA 6000 SIN ANTENA</t>
+    <t>INTEGRA 6000 CON TEKMATIC SIN ANTENA</t>
   </si>
   <si>
-    <t>INTEGRA 6000 CON ANTENA</t>
+    <t>INTEGRA 6000 CON TEKMATIC CON ANTENA</t>
   </si>
   <si>
-    <t>PANTALLA i6000 SIN ANTENA</t>
+    <t>INTEGRA 6000 CON GATILLO SIN ANTENA</t>
   </si>
   <si>
-    <t>PANTALLA i6000 CON ANTENA</t>
+    <t>INTEGRA 6000 CON GATILLO CON ANTENA</t>
   </si>
   <si>
-    <t>TEKMATIC</t>
+    <t>SOLO SEMBRADORA con CORTE TEKMATIC</t>
   </si>
   <si>
-    <t>GATILLO PARA DOSIFICADOR MATERMACC</t>
+    <t>SOLO SEMBRADORA con CORTE a GATILLO</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBDA4A0-11E7-4D74-BDA7-46948E0C69CA}">
   <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
